--- a/Program/Other/Sharepoint上傳用/測試FT/L6/L6045/FT_L6045.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L6/L6045/FT_L6045.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L6\L6045\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BAA3FB-22A2-4669-A7C2-7A79C0FB65AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5D901-D904-4DE2-B01C-A7ECC8CB301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,29 +172,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.TxRecord.TranData.TXCD
+    <t>依輸入條件，輸出結果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.TxInquiry.TranData.TXCD
 2.TxTranCode.TranItem
 3.交易代號+交易名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxRecord.TranData.REASON/查詢理由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.TxRecord.TranData.TLRNO
-2.TxRecord.TranData.EMPNM
+  </si>
+  <si>
+    <t>TxInquiry.TranData.REASON/查詢理由</t>
+  </si>
+  <si>
+    <t>1.TxInquiry.TranData.TLRNO
+2.TxInquiry.TranData.EMPNM
 3.經辦+經辦姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.TxRecord.Caldate
-2.TxRecord.CalTime
+    <t>1.TxInquiry.TranData.Caldate
+2.TxInquiry.TranData.CalTime
 3.交易日期+交易時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>依輸入條件，輸出結果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +660,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -844,10 +842,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -891,10 +889,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -938,10 +936,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -985,10 +983,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
